--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42395.42180689815</v>
+        <v>42395.4452893287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">

--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42395.4452893287</v>
+        <v>42395.47377541666</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42395.47377541666</v>
+        <v>42395.53270923611</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Name:</t>
   </si>
@@ -64,6 +65,18 @@
     <t>${obj.cols.v}</t>
   </si>
   <si>
+    <t>${myCollection.color}</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>${myCollection.value}</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -83,6 +96,54 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>${myCollection_JxLsC_.color}</t>
+  </si>
+  <si>
+    <t>${myCollection_JxLsC_.value}</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>#f00</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>#0f0</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>#00f</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>#0ff</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>#f0f</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>#ff0</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>#000</t>
   </si>
 </sst>
 </file>
@@ -460,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -469,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42395.53270923611</v>
+        <v>42395.67369581018</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -485,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -493,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -523,12 +584,95 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.5" customHeight="true">
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7265625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="true">
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="true">
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="true">
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="true">
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="true">
+      <c r="B7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="true">
+      <c r="B8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42395.67369581018</v>
+        <v>42397.377652627314</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/examples/template_out.xlsx
+++ b/examples/template_out.xlsx
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>42397.377652627314</v>
+        <v>42403.61878988426</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
